--- a/Questionnaire bénévoles 2025 - 19e édition (réponses).xlsx
+++ b/Questionnaire bénévoles 2025 - 19e édition (réponses).xlsx
@@ -5,15 +5,13 @@
   <sheets>
     <sheet state="visible" name="Réponses au formulaire 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Réponses au formulaire 1'!$A$1:$Z$66</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="571">
   <si>
     <t>Horodateur</t>
   </si>
@@ -898,7 +896,7 @@
     <t>Je veux pas être au caca.</t>
   </si>
   <si>
-    <t>13h-14h, 14h-15h, 15h-16h, 16h-17h, 17h-18h, 18h-19h, 19h-20h, 20h-21h</t>
+    <t xml:space="preserve"> 18h-19h, 19h-20h, 20h-21h</t>
   </si>
   <si>
     <t>Vaisselle du bar (vous serez deux pour papoter)</t>
@@ -934,7 +932,7 @@
     <t xml:space="preserve">Lisa </t>
   </si>
   <si>
-    <t xml:space="preserve">Fornasari </t>
+    <t>Tamara Feodoroff</t>
   </si>
   <si>
     <t>0766278283</t>
@@ -1359,6 +1357,381 @@
   </si>
   <si>
     <t>13h-14h, 14h-15h, 15h-16h, 16h-17h</t>
+  </si>
+  <si>
+    <t>Muthu</t>
+  </si>
+  <si>
+    <t>Mereddy</t>
+  </si>
+  <si>
+    <t>0767987859</t>
+  </si>
+  <si>
+    <t>Muthu.mereddy@gmail.com</t>
+  </si>
+  <si>
+    <t>17h-18h, 18h-19h, 19h-20h, 20h-21h, 21h-22h, 22h-23h, 23h-00h</t>
+  </si>
+  <si>
+    <t>léa</t>
+  </si>
+  <si>
+    <t>boury</t>
+  </si>
+  <si>
+    <t>0781105471</t>
+  </si>
+  <si>
+    <t>lealou.boury@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departout </t>
+  </si>
+  <si>
+    <t>+33783984486</t>
+  </si>
+  <si>
+    <t>elsa.departout@gmail.com</t>
+  </si>
+  <si>
+    <t>13h-14h, 14h-15h, 15h-16h, 16h-17h, 17h-18h, 18h-19h, 19h-20h, 20h-21h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis vegetarienne :) </t>
+  </si>
+  <si>
+    <t>J’ai suivi plusieurs formations pour la prevention des violences sexistes et sexuelles er déjà été benevole sur ce genre de mission, si vous avez prévu un espace safe / des benevoles volants sur ce theme :) des bisouuuus</t>
+  </si>
+  <si>
+    <t>Perrine</t>
+  </si>
+  <si>
+    <t>Leguai</t>
+  </si>
+  <si>
+    <t>0623821085</t>
+  </si>
+  <si>
+    <t>perrine.leguai@gmail.com</t>
+  </si>
+  <si>
+    <t>le céleri c est immonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claire </t>
+  </si>
+  <si>
+    <t>Roux</t>
+  </si>
+  <si>
+    <t>0617890795</t>
+  </si>
+  <si>
+    <t>claireroux@hotmail.com</t>
+  </si>
+  <si>
+    <t>Zone poeme</t>
+  </si>
+  <si>
+    <t>17h-18h, 18h-19h</t>
+  </si>
+  <si>
+    <t>Flexi</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
+    <t>0651299302</t>
+  </si>
+  <si>
+    <t>jeanne.clementlp2i@gmail.com</t>
+  </si>
+  <si>
+    <t>15h-16h, 16h-17h</t>
+  </si>
+  <si>
+    <t>Free shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetarienne, pas d'allergie </t>
+  </si>
+  <si>
+    <t>Coincoin</t>
+  </si>
+  <si>
+    <t>Klara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marques de Campos </t>
+  </si>
+  <si>
+    <t>0601457292</t>
+  </si>
+  <si>
+    <t>klaramarquesdc@gmail.com</t>
+  </si>
+  <si>
+    <t>Vegetarienne</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Bulard</t>
+  </si>
+  <si>
+    <t>0611358904</t>
+  </si>
+  <si>
+    <t>carla.bulard@gmail.com</t>
+  </si>
+  <si>
+    <t>Trop chouette &lt;3</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>0652935241</t>
+  </si>
+  <si>
+    <t>cancyrilloof@gmail.com</t>
+  </si>
+  <si>
+    <t>Service au bar, Vaisselle du bar (vous serez deux pour papoter), Rangement du bar (après 23h), Je sais changer un fût</t>
+  </si>
+  <si>
+    <t>Moi moi moi !</t>
+  </si>
+  <si>
+    <t>Installation (13h-14h), Rangement (18h-19h), Pimp ton punk canard, Maquillage enfants, Free shop, Jeux en bois</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Ypreeuw</t>
+  </si>
+  <si>
+    <t>0625991577</t>
+  </si>
+  <si>
+    <t>Carl.ypreeuw@gmail.com</t>
+  </si>
+  <si>
+    <t>Photographe youhouuu</t>
+  </si>
+  <si>
+    <t>Bisouuuuus</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>DOGON</t>
+  </si>
+  <si>
+    <t>+33645326560</t>
+  </si>
+  <si>
+    <t>benjidogon@hotmail.com</t>
+  </si>
+  <si>
+    <t>14h-15h, 15h-16h, 16h-17h, 17h-18h, 18h-19h, 19h-20h, 20h-21h, 21h-22h</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Coucou ! (J'adore être au bar ^^)</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razi </t>
+  </si>
+  <si>
+    <t>0638830249</t>
+  </si>
+  <si>
+    <t>Razisoraya@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Veggie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">François </t>
+  </si>
+  <si>
+    <t>Chea</t>
+  </si>
+  <si>
+    <t>Enduizator@hotmail.fr</t>
+  </si>
+  <si>
+    <t>Léo</t>
+  </si>
+  <si>
+    <t>Ouzet</t>
+  </si>
+  <si>
+    <t>0788413685</t>
+  </si>
+  <si>
+    <t>leo.ouzet@gmail.com</t>
+  </si>
+  <si>
+    <t>19h-20h, 20h-21h, 21h-22h, 22h-23h, 23h-00h</t>
+  </si>
+  <si>
+    <t>Rien à signaler</t>
+  </si>
+  <si>
+    <t>Petit coucou, j'ferai de mon mieux pour aider mais faudra me guider un peu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adèle </t>
+  </si>
+  <si>
+    <t>Berthou</t>
+  </si>
+  <si>
+    <t>0781160831</t>
+  </si>
+  <si>
+    <t>berthouadele@gmail.com</t>
+  </si>
+  <si>
+    <t>20h-21h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergie aux oignons </t>
+  </si>
+  <si>
+    <t>Douillard</t>
+  </si>
+  <si>
+    <t>0651959200</t>
+  </si>
+  <si>
+    <t>sim.douille@gmail.com</t>
+  </si>
+  <si>
+    <t>Végé mais zéro allergie</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Tiberghien</t>
+  </si>
+  <si>
+    <t>0661000863</t>
+  </si>
+  <si>
+    <t>Cutiber@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Brigade des tubes</t>
+  </si>
+  <si>
+    <t>18h-19h, 19h-20h, 20h-21h, 21h-22h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexitarien, pas d’allergie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourlard </t>
+  </si>
+  <si>
+    <t>0698193678</t>
+  </si>
+  <si>
+    <t>bourlard.f@gmail.com</t>
+  </si>
+  <si>
+    <t>13h-14h, 14h-15h, 15h-16h, 16h-17h, 17h-18h</t>
+  </si>
+  <si>
+    <t>Maquillage enfants</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>Pastini</t>
+  </si>
+  <si>
+    <t>0698236617</t>
+  </si>
+  <si>
+    <t>fiona.pastini@gmail.com</t>
+  </si>
+  <si>
+    <t>16h-17h, 17h-18h, 18h-19h, 19h-20h, 20h-21h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidonie </t>
+  </si>
+  <si>
+    <t>Hadoux</t>
+  </si>
+  <si>
+    <t>0637683505</t>
+  </si>
+  <si>
+    <t>sidoniehadoux@gmail.com</t>
+  </si>
+  <si>
+    <t>Zone Poème Punk</t>
+  </si>
+  <si>
+    <t>16h-17h, 17h-18h</t>
+  </si>
+  <si>
+    <t>Courage pour la prepa. Et surtout merci de nous offrir ce moment de joie festive ! Love</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Barataud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timote.trombone@hotmail.fr </t>
+  </si>
+  <si>
+    <t>Je mange de tout.</t>
+  </si>
+  <si>
+    <t>En binôme avec Tim pour la technique!!! Bisous cœur cœur !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohana </t>
+  </si>
+  <si>
+    <t>Hattier</t>
+  </si>
+  <si>
+    <t>0635589391</t>
+  </si>
+  <si>
+    <t>yohanahattier@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Végétarienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci à vous d organiser cette journée !! </t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1380,6 +1753,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1389,7 +1771,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -1522,10 +1904,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1533,13 +1915,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1549,7 +1945,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1601,6 +1997,12 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1608,6 +2010,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf quotePrefix="1" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1668,19 +2073,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z66" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$Z$66">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Je suis artiste ou je participe aux ateliers"/>
-        <filter val="Je suis un.e ancien.ne habitant.e :)"/>
-        <filter val="Je connais un.e habitant.e"/>
-        <filter val="Pote de Célia, monsieur canard si vous préférez 😅"/>
-        <filter val="Facebook"/>
-        <filter val="Habitante du quartier"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z89" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="26">
     <tableColumn name="Horodateur" id="1"/>
     <tableColumn name="Prénom" id="2"/>
@@ -1924,8 +2317,9 @@
     <col customWidth="1" min="4" max="4" width="29.13"/>
     <col customWidth="1" min="5" max="5" width="18.88"/>
     <col customWidth="1" min="6" max="6" width="32.25"/>
-    <col customWidth="1" min="7" max="8" width="37.63"/>
-    <col customWidth="1" min="9" max="9" width="32.63"/>
+    <col customWidth="1" min="7" max="7" width="21.0"/>
+    <col customWidth="1" min="8" max="8" width="5.88"/>
+    <col customWidth="1" min="9" max="9" width="9.0"/>
     <col customWidth="1" min="10" max="11" width="37.63"/>
     <col customWidth="1" min="12" max="12" width="28.25"/>
     <col customWidth="1" min="13" max="13" width="37.63"/>
@@ -2019,7 +2413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="4">
         <v>45763.84644854166</v>
       </c>
@@ -2210,7 +2604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="12">
         <v>45777.17777454861</v>
       </c>
@@ -2257,7 +2651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="9">
         <v>45777.31720369213</v>
       </c>
@@ -2339,7 +2733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="9">
         <v>45777.7141878125</v>
       </c>
@@ -2405,7 +2799,7 @@
       <c r="A10" s="12">
         <v>45777.82203347222</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2451,7 +2845,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="9">
         <v>45779.400944016204</v>
       </c>
@@ -2697,7 +3091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="9">
         <v>45782.5826191088</v>
       </c>
@@ -2937,7 +3331,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="9">
         <v>45783.883479861106</v>
       </c>
@@ -2972,7 +3366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="12">
         <v>45783.92962577546</v>
       </c>
@@ -3095,7 +3489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="9">
         <v>45785.408025324075</v>
       </c>
@@ -3139,7 +3533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="12">
         <v>45785.41692341435</v>
       </c>
@@ -3177,7 +3571,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="9">
         <v>45785.47675986111</v>
       </c>
@@ -3306,7 +3700,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="12">
         <v>45785.649627314815</v>
       </c>
@@ -3371,7 +3765,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="9">
         <v>45785.64967903935</v>
       </c>
@@ -3471,7 +3865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="9">
         <v>45786.41180256945</v>
       </c>
@@ -3521,7 +3915,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="12">
         <v>45786.427508252316</v>
       </c>
@@ -3644,7 +4038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="9">
         <v>45787.89396861111</v>
       </c>
@@ -3691,7 +4085,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="12">
         <v>45788.64381883102</v>
       </c>
@@ -3738,7 +4132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="9">
         <v>45788.72368900463</v>
       </c>
@@ -3797,7 +4191,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="12">
         <v>45788.75712178241</v>
       </c>
@@ -3851,7 +4245,7 @@
       <c r="B43" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="18" t="s">
         <v>304</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -4797,38 +5191,1041 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="17">
+      <c r="A66" s="12">
         <v>45797.59540508102</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="K66" s="18" t="s">
+      <c r="K66" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="L66" s="18" t="s">
+      <c r="L66" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="M66" s="18" t="s">
+      <c r="M66" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="W66" s="18" t="s">
+      <c r="W66" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="X66" s="18" t="s">
-        <v>39</v>
+      <c r="X66" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9">
+        <v>45797.66249164352</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W67" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X67" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12">
+        <v>45797.701659687504</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X68" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y68" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9">
+        <v>45797.71643172453</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W69" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y69" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z69" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12">
+        <v>45797.753900358795</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X70" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y70" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9">
+        <v>45797.81408303241</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W71" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y71" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12">
+        <v>45798.5248890625</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U72" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X72" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y72" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z72" s="16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9">
+        <v>45798.52606094907</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U73" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="W73" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X73" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y73" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12">
+        <v>45798.5275496875</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U74" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X74" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z74" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9">
+        <v>45798.55101565972</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S75" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="U75" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="V75" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W75" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X75" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12">
+        <v>45798.77660940972</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X76" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z76" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9">
+        <v>45798.783331388884</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W77" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y77" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z77" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12">
+        <v>45798.79178818287</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W78" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X78" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y78" s="13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9">
+        <v>45798.81054268518</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W79" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X79" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12">
+        <v>45798.8568483912</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="O80" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X80" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y80" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z80" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9">
+        <v>45798.90879703704</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W81" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X81" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y81" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12">
+        <v>45798.909809351855</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X82" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y82" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9">
+        <v>45799.06111596065</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W83" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X83" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y83" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12">
+        <v>45799.52344479167</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="P84" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q84" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="U84" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X84" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9">
+        <v>45799.536962557875</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P85" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U85" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="W85" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X85" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12">
+        <v>45799.59532523148</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="13">
+        <v>6.78808036E8</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X86" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9">
+        <v>45799.60064365741</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W87" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X87" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z87" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12">
+        <v>45799.67297453704</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W88" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X88" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y88" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z88" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="19">
+        <v>45799.721315925926</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M89" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W89" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="X89" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y89" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z89" s="22" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
